--- a/results/ML_results/5.xlsx
+++ b/results/ML_results/5.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOVI\Desktop\git_code\src\ML\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOVI\Desktop\git_code\results\ML_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2D0600-85A5-416F-8EE7-C037C2335F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F9B29D-F801-4454-996C-CD64F7472D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="10" r:id="rId1"/>
+    <sheet name="result" sheetId="10" r:id="rId1"/>
     <sheet name="svc" sheetId="1" r:id="rId2"/>
     <sheet name="rf" sheetId="2" r:id="rId3"/>
     <sheet name="knn" sheetId="3" r:id="rId4"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="261">
   <si>
     <t>Seed</t>
   </si>
@@ -53,79 +53,76 @@
     <t>AUC</t>
   </si>
   <si>
-    <t>MCC</t>
-  </si>
-  <si>
     <t>Best_model</t>
   </si>
   <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32416, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31764, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31861, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32342, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'poly', 'max_iter': -1, 'probability': False, 'random_state': 32486, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32416, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31764, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31861, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32342, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32486, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
     <t>{'C': 0.1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32249, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32313, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31691, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32289, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32313, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31691, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32289, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
     <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32538, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32487, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31673, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32140, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31632, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32487, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31673, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32140, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31632, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
     <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31732, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31607, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31786, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'poly', 'max_iter': -1, 'probability': False, 'random_state': 31687, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32397, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31948, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31607, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31786, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31687, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32397, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'poly', 'max_iter': -1, 'probability': False, 'random_state': 31948, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
     <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31924, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32543, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32479, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32543, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'poly', 'max_iter': -1, 'probability': False, 'random_state': 32479, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
     <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31956, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
@@ -134,7 +131,7 @@
     <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31690, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
-    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31677, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31677, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
     <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32200, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
@@ -143,100 +140,100 @@
     <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32168, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
-    <t>{'C': 10, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.001, 'kernel': 'poly', 'max_iter': -1, 'probability': False, 'random_state': 32230, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+    <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 32230, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
     <t>{'C': 1, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 0.0001, 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 31692, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
   </si>
   <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 32416, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_jobs': None, 'oob_score': False, 'random_state': 31764, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 31861, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32342, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_jobs': None, 'oob_score': False, 'random_state': 32486, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_jobs': None, 'oob_score': False, 'random_state': 32249, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32313, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_jobs': None, 'oob_score': False, 'random_state': 31691, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32289, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_jobs': None, 'oob_score': False, 'random_state': 32538, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32487, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 31673, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32140, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 31632, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 31732, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_jobs': None, 'oob_score': False, 'random_state': 31607, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 31786, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 31687, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 32397, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 31948, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 31924, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32543, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 32479, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 31956, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 31690, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 31677, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32200, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32168, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32230, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 31692, 'verbose': 0, 'warm_start': False}</t>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 32416, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_jobs': None, 'oob_score': False, 'random_state': 31764, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_jobs': None, 'oob_score': False, 'random_state': 31861, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32342, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_jobs': None, 'oob_score': False, 'random_state': 32486, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_jobs': None, 'oob_score': False, 'random_state': 32249, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32313, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_jobs': None, 'oob_score': False, 'random_state': 31691, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32289, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32538, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32487, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 31673, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32140, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 31632, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 31732, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 31607, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 31786, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 31687, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 32397, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 31948, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 31924, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32543, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 32479, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 31956, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 31690, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 31677, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32200, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32168, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 150, 'n_jobs': None, 'oob_score': False, 'random_state': 32230, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'entropy', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': 31692, 'verbose': 0, 'warm_start': False}</t>
   </si>
   <si>
     <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 7, 'p': 2, 'weights': 'uniform'}</t>
@@ -245,190 +242,193 @@
     <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 7, 'p': 2, 'weights': 'distance'}</t>
   </si>
   <si>
+    <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 6, 'p': 2, 'weights': 'uniform'}</t>
+  </si>
+  <si>
     <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 6, 'p': 2, 'weights': 'distance'}</t>
   </si>
   <si>
     <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
   </si>
   <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32416, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31764, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31861, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32342, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32486, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32249, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32313, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31691, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32289, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32538, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32487, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31673, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32140, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31632, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31732, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31607, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31786, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31687, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32397, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31948, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31924, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32543, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32479, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31956, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31690, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31677, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32200, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32168, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 32230, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': 31692, 'splitter': 'best'}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32416, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31764, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31861, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32342, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32486, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32249, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32313, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31691, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32289, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32538, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32487, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31673, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32140, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31632, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31732, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31607, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31786, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31687, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32397, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31948, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31924, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32543, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32479, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31956, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31690, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31677, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32200, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32168, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 32230, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'presort': 'deprecated', 'random_state': 31692, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32416, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31764, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31861, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32342, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32486, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32249, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32313, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31691, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32289, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32538, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32487, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31673, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32140, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31632, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31732, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31607, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31786, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31687, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32397, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31948, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31924, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32543, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32479, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31956, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31690, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31677, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32200, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32168, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 32230, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': 50, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'random_state': 31692, 'splitter': 'best'}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32416, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31764, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31861, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32342, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32486, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32249, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32313, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31691, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32289, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32538, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32487, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31673, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32140, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31632, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31732, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31607, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31786, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31687, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32397, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31948, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31924, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32543, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32479, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31956, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31690, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31677, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32200, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32168, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 32230, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'ccp_alpha': 0.0, 'criterion': 'friedman_mse', 'init': None, 'learning_rate': 0.1, 'loss': 'deviance', 'max_depth': 3, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 50, 'n_iter_no_change': None, 'random_state': 31692, 'subsample': 1.0, 'tol': 0.0001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
   </si>
   <si>
     <t>{'algorithm': 'SAMME.R', 'base_estimator': None, 'learning_rate': 0.1, 'n_estimators': 150, 'random_state': 32416}</t>
@@ -524,94 +524,94 @@
     <t>{'priors': None, 'var_smoothing': 1e-09}</t>
   </si>
   <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32416, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'squared_hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31764, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 31861, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'perceptron', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32342, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32486, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'squared_hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32249, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32313, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31691, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'modified_huber', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32289, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32538, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'squared_hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32487, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32416, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'modified_huber', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31764, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31861, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'modified_huber', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32342, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'squared_hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32486, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32249, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32313, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 31691, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'squared_hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32289, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'modified_huber', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32538, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'squared_hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32487, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
   </si>
   <si>
     <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 31673, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
   </si>
   <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32140, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'modified_huber', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31632, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32140, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 31632, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
   </si>
   <si>
     <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31732, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
   </si>
   <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'squared_hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31607, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 31786, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 31687, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'squared_hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32397, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'squared_hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31948, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31924, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31607, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31786, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31687, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32397, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31948, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 31924, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
   </si>
   <si>
     <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32543, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
   </si>
   <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32479, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31956, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 31690, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31677, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'modified_huber', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32200, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32168, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'perceptron', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32230, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
-  </si>
-  <si>
-    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31692, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'modified_huber', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 32479, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31956, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'squared_hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'l2', 'power_t': 0.5, 'random_state': 31690, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31677, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'squared_hinge', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32200, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'perceptron', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32168, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'modified_huber', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 32230, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>{'alpha': 0.0001, 'average': False, 'class_weight': None, 'early_stopping': False, 'epsilon': 0.1, 'eta0': 0.0, 'fit_intercept': True, 'l1_ratio': 0.15, 'learning_rate': 'optimal', 'loss': 'log', 'max_iter': 5000, 'n_iter_no_change': 5, 'n_jobs': None, 'penalty': 'elasticnet', 'power_t': 0.5, 'random_state': 31692, 'shuffle': True, 'tol': 0.001, 'validation_fraction': 0.1, 'verbose': 0, 'warm_start': False}</t>
   </si>
   <si>
     <t>{'C': 1.0, 'class_weight': None, 'dual': False, 'fit_intercept': True, 'intercept_scaling': 1, 'l1_ratio': None, 'max_iter': 5000, 'multi_class': 'auto', 'n_jobs': None, 'penalty': 'l2', 'random_state': 32416, 'solver': 'lbfgs', 'tol': 0.0001, 'verbose': 0, 'warm_start': False}</t>
@@ -702,6 +702,10 @@
   </si>
   <si>
     <t>{'C': 1.0, 'class_weight': None, 'dual': False, 'fit_intercept': True, 'intercept_scaling': 1, 'l1_ratio': None, 'max_iter': 5000, 'multi_class': 'auto', 'n_jobs': None, 'penalty': 'l2', 'random_state': 31692, 'solver': 'lbfgs', 'tol': 0.0001, 'verbose': 0, 'warm_start': False}</t>
+  </si>
+  <si>
+    <t>mean±SD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ACC</t>
@@ -752,35 +756,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mean±SD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>74.9±6</t>
-  </si>
-  <si>
-    <t>77.52±2</t>
-  </si>
-  <si>
-    <t>74.83±8</t>
-  </si>
-  <si>
-    <t>80.82±4</t>
-  </si>
-  <si>
-    <t>79.92±5</t>
-  </si>
-  <si>
-    <t>82.78±3</t>
-  </si>
-  <si>
-    <t>59.89±1</t>
-  </si>
-  <si>
-    <t>70.3±0</t>
-  </si>
-  <si>
-    <t>56.21±1</t>
+    <t>75.51±5</t>
+  </si>
+  <si>
+    <t>77.54±2</t>
+  </si>
+  <si>
+    <t>75.74±7</t>
+  </si>
+  <si>
+    <t>81.14±3</t>
+  </si>
+  <si>
+    <t>80.37±5</t>
+  </si>
+  <si>
+    <t>83.05±3</t>
+  </si>
+  <si>
+    <t>59.91±1</t>
+  </si>
+  <si>
+    <t>70.23±0</t>
+  </si>
+  <si>
+    <t>56.28±1</t>
   </si>
   <si>
     <t>68.79±1</t>
@@ -819,13 +819,13 @@
     <t>73.69±0</t>
   </si>
   <si>
-    <t>64.31±3</t>
-  </si>
-  <si>
-    <t>59.57±5</t>
-  </si>
-  <si>
-    <t>67.01±3</t>
+    <t>64.11±4</t>
+  </si>
+  <si>
+    <t>59.17±6</t>
+  </si>
+  <si>
+    <t>66.84±3</t>
   </si>
   <si>
     <t>68.55±0</t>
@@ -852,10 +852,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -865,18 +864,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -911,10 +904,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -933,7 +926,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -975,7 +968,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1007,27 +1000,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1059,24 +1034,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1252,34 +1209,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF82EC6-A034-4264-9027-6C71D543C0C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86A0C73-CDCF-4E89-BF6A-C0A06ED77B02}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
         <v>234</v>
@@ -1293,7 +1247,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
         <v>237</v>
@@ -1307,7 +1261,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
         <v>240</v>
@@ -1321,7 +1275,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
         <v>243</v>
@@ -1335,7 +1289,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
         <v>246</v>
@@ -1349,7 +1303,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
         <v>249</v>
@@ -1363,7 +1317,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
         <v>252</v>
@@ -1377,7 +1331,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
         <v>255</v>
@@ -1391,7 +1345,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
         <v>258</v>
@@ -1411,15 +1365,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1435,11 +1389,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -1452,14 +1403,11 @@
       <c r="D2">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E2">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -1472,14 +1420,11 @@
       <c r="D3">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E3">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -1492,14 +1437,11 @@
       <c r="D4">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E4">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -1512,14 +1454,11 @@
       <c r="D5">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E5">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -1532,14 +1471,11 @@
       <c r="D6">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E6">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -1552,14 +1488,11 @@
       <c r="D7">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E7">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -1572,14 +1505,11 @@
       <c r="D8">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E8">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -1592,14 +1522,11 @@
       <c r="D9">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E9">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -1612,14 +1539,11 @@
       <c r="D10">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E10">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -1632,14 +1556,11 @@
       <c r="D11">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E11">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -1652,14 +1573,11 @@
       <c r="D12">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E12">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -1672,14 +1590,11 @@
       <c r="D13">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E13">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -1692,14 +1607,11 @@
       <c r="D14">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E14">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -1712,14 +1624,11 @@
       <c r="D15">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E15">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -1732,14 +1641,11 @@
       <c r="D16">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E16">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -1752,14 +1658,11 @@
       <c r="D17">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E17">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -1772,14 +1675,11 @@
       <c r="D18">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E18">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -1792,14 +1692,11 @@
       <c r="D19">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E19">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -1812,14 +1709,11 @@
       <c r="D20">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E20">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -1832,14 +1726,11 @@
       <c r="D21">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E21">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -1852,14 +1743,11 @@
       <c r="D22">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E22">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -1872,14 +1760,11 @@
       <c r="D23">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E23">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -1892,14 +1777,11 @@
       <c r="D24">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E24">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -1912,14 +1794,11 @@
       <c r="D25">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E25">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -1932,14 +1811,11 @@
       <c r="D26">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E26">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -1952,14 +1828,11 @@
       <c r="D27">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E27">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -1972,14 +1845,11 @@
       <c r="D28">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E28">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -1992,14 +1862,11 @@
       <c r="D29">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E29">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -2012,14 +1879,11 @@
       <c r="D30">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E30">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -2032,51 +1896,44 @@
       <c r="D31">
         <v>0.7010544561606239</v>
       </c>
-      <c r="E31">
-        <v>0.40503303766816839</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>68.55±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>67.82±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>70.11±0</v>
       </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>40.5±0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2092,111 +1949,93 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
       <c r="B2">
-        <v>0.78342749529190203</v>
+        <v>0.76271186440677963</v>
       </c>
       <c r="C2">
-        <v>0.79204339963833637</v>
+        <v>0.778169014084507</v>
       </c>
       <c r="D2">
-        <v>0.79204824498049964</v>
-      </c>
-      <c r="E2">
-        <v>0.57960135246314637</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.76710963455149506</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
       <c r="B3">
-        <v>0.76271186440677963</v>
+        <v>0.78342749529190203</v>
       </c>
       <c r="C3">
-        <v>0.778169014084507</v>
+        <v>0.79204339963833637</v>
       </c>
       <c r="D3">
-        <v>0.76710963455149506</v>
-      </c>
-      <c r="E3">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.79204824498049964</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
       <c r="B4">
-        <v>0.76271186440677963</v>
+        <v>0.76459510357815441</v>
       </c>
       <c r="C4">
-        <v>0.778169014084507</v>
+        <v>0.77231329690346084</v>
       </c>
       <c r="D4">
-        <v>0.76710963455149506</v>
-      </c>
-      <c r="E4">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7738985988733208</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
       <c r="B5">
-        <v>0.76271186440677963</v>
+        <v>0.76459510357815441</v>
       </c>
       <c r="C5">
-        <v>0.778169014084507</v>
+        <v>0.77231329690346084</v>
       </c>
       <c r="D5">
-        <v>0.76710963455149506</v>
-      </c>
-      <c r="E5">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7738985988733208</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
       <c r="B6">
-        <v>0.57627118644067798</v>
+        <v>0.76459510357815441</v>
       </c>
       <c r="C6">
-        <v>0.72594397076735684</v>
+        <v>0.77231329690346084</v>
       </c>
       <c r="D6">
-        <v>0.51240791564350718</v>
-      </c>
-      <c r="E6">
-        <v>8.6333227961142858E-2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7738985988733208</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -2209,34 +2048,28 @@
       <c r="D7">
         <v>0.78222591362126248</v>
       </c>
-      <c r="E7">
-        <v>0.56669092683997802</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
       <c r="B8">
-        <v>0.76271186440677963</v>
+        <v>0.78342749529190203</v>
       </c>
       <c r="C8">
-        <v>0.778169014084507</v>
+        <v>0.79204339963833637</v>
       </c>
       <c r="D8">
-        <v>0.76710963455149506</v>
-      </c>
-      <c r="E8">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.79204824498049964</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -2244,19 +2077,16 @@
         <v>0.76271186440677963</v>
       </c>
       <c r="C9">
-        <v>0.77007299270072993</v>
+        <v>0.778169014084507</v>
       </c>
       <c r="D9">
-        <v>0.77223746930521453</v>
-      </c>
-      <c r="E9">
-        <v>0.54090053843955255</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.76710963455149506</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -2264,19 +2094,16 @@
         <v>0.76271186440677963</v>
       </c>
       <c r="C10">
-        <v>0.77007299270072993</v>
+        <v>0.778169014084507</v>
       </c>
       <c r="D10">
-        <v>0.77223746930521453</v>
-      </c>
-      <c r="E10">
-        <v>0.54090053843955255</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.76710963455149506</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -2289,94 +2116,79 @@
       <c r="D11">
         <v>0.76710963455149506</v>
       </c>
-      <c r="E11">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
       <c r="B12">
-        <v>0.78342749529190203</v>
+        <v>0.76271186440677963</v>
       </c>
       <c r="C12">
-        <v>0.79204339963833637</v>
+        <v>0.778169014084507</v>
       </c>
       <c r="D12">
-        <v>0.79204824498049964</v>
-      </c>
-      <c r="E12">
-        <v>0.57960135246314637</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.76710963455149506</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
       <c r="B13">
-        <v>0.76271186440677963</v>
+        <v>0.76459510357815441</v>
       </c>
       <c r="C13">
-        <v>0.778169014084507</v>
+        <v>0.77231329690346084</v>
       </c>
       <c r="D13">
-        <v>0.76710963455149506</v>
-      </c>
-      <c r="E13">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7738985988733208</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
       <c r="B14">
-        <v>0.78342749529190203</v>
+        <v>0.76271186440677963</v>
       </c>
       <c r="C14">
-        <v>0.79204339963833637</v>
+        <v>0.778169014084507</v>
       </c>
       <c r="D14">
-        <v>0.79204824498049964</v>
-      </c>
-      <c r="E14">
-        <v>0.57960135246314637</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.76710963455149506</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
       <c r="B15">
-        <v>0.76271186440677963</v>
+        <v>0.76459510357815441</v>
       </c>
       <c r="C15">
-        <v>0.778169014084507</v>
+        <v>0.77231329690346084</v>
       </c>
       <c r="D15">
-        <v>0.76710963455149506</v>
-      </c>
-      <c r="E15">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7738985988733208</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -2389,114 +2201,96 @@
       <c r="D16">
         <v>0.76710963455149506</v>
       </c>
-      <c r="E16">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
       <c r="B17">
-        <v>0.76271186440677963</v>
+        <v>0.78342749529190203</v>
       </c>
       <c r="C17">
-        <v>0.778169014084507</v>
+        <v>0.79204339963833637</v>
       </c>
       <c r="D17">
-        <v>0.76710963455149506</v>
-      </c>
-      <c r="E17">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.79204824498049964</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
       <c r="B18">
-        <v>0.78342749529190203</v>
+        <v>0.76459510357815441</v>
       </c>
       <c r="C18">
-        <v>0.79204339963833637</v>
+        <v>0.77231329690346084</v>
       </c>
       <c r="D18">
-        <v>0.79204824498049964</v>
-      </c>
-      <c r="E18">
-        <v>0.57960135246314637</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7738985988733208</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
       <c r="B19">
-        <v>0.57627118644067798</v>
+        <v>0.76459510357815441</v>
       </c>
       <c r="C19">
-        <v>0.72594397076735684</v>
+        <v>0.77231329690346084</v>
       </c>
       <c r="D19">
-        <v>0.51240791564350718</v>
-      </c>
-      <c r="E19">
-        <v>8.6333227961142858E-2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7738985988733208</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
       <c r="B20">
-        <v>0.76271186440677963</v>
+        <v>0.76459510357815441</v>
       </c>
       <c r="C20">
-        <v>0.778169014084507</v>
+        <v>0.77231329690346084</v>
       </c>
       <c r="D20">
-        <v>0.76710963455149506</v>
-      </c>
-      <c r="E20">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7738985988733208</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
       <c r="B21">
-        <v>0.76271186440677963</v>
+        <v>0.57627118644067798</v>
       </c>
       <c r="C21">
-        <v>0.778169014084507</v>
+        <v>0.72594397076735684</v>
       </c>
       <c r="D21">
-        <v>0.76710963455149506</v>
-      </c>
-      <c r="E21">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.51240791564350718</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -2509,54 +2303,45 @@
       <c r="D22">
         <v>0.76710963455149506</v>
       </c>
-      <c r="E22">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
       <c r="B23">
-        <v>0.78342749529190203</v>
+        <v>0.76271186440677963</v>
       </c>
       <c r="C23">
-        <v>0.79204339963833637</v>
+        <v>0.778169014084507</v>
       </c>
       <c r="D23">
-        <v>0.79204824498049964</v>
-      </c>
-      <c r="E23">
-        <v>0.57960135246314637</v>
-      </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.76710963455149506</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
       <c r="B24">
-        <v>0.76271186440677963</v>
+        <v>0.57627118644067798</v>
       </c>
       <c r="C24">
-        <v>0.778169014084507</v>
+        <v>0.72594397076735684</v>
       </c>
       <c r="D24">
-        <v>0.76710963455149506</v>
-      </c>
-      <c r="E24">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.51240791564350718</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -2569,14 +2354,11 @@
       <c r="D25">
         <v>0.76710963455149506</v>
       </c>
-      <c r="E25">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -2589,34 +2371,28 @@
       <c r="D26">
         <v>0.79204824498049964</v>
       </c>
-      <c r="E26">
-        <v>0.57960135246314637</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
       <c r="B27">
-        <v>0.76271186440677963</v>
+        <v>0.78342749529190203</v>
       </c>
       <c r="C27">
-        <v>0.778169014084507</v>
+        <v>0.79204339963833637</v>
       </c>
       <c r="D27">
-        <v>0.76710963455149506</v>
-      </c>
-      <c r="E27">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.79204824498049964</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -2629,14 +2405,11 @@
       <c r="D28">
         <v>0.79204824498049964</v>
       </c>
-      <c r="E28">
-        <v>0.57960135246314637</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -2649,34 +2422,28 @@
       <c r="D29">
         <v>0.76710963455149506</v>
       </c>
-      <c r="E29">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
       <c r="B30">
-        <v>0.57627118644067798</v>
+        <v>0.76271186440677963</v>
       </c>
       <c r="C30">
-        <v>0.72594397076735684</v>
+        <v>0.778169014084507</v>
       </c>
       <c r="D30">
-        <v>0.51240791564350718</v>
-      </c>
-      <c r="E30">
-        <v>8.6333227961142858E-2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.76710963455149506</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -2689,51 +2456,44 @@
       <c r="D31">
         <v>0.76710963455149506</v>
       </c>
-      <c r="E31">
-        <v>0.52943069933910369</v>
-      </c>
-      <c r="F31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
-        <v>74.9±6</v>
-      </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
-        <v>77.52±2</v>
-      </c>
-      <c r="D33" s="3" t="str">
+        <v>75.51±5</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+        <v>77.54±2</v>
+      </c>
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>74.83±8</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>49.88±14</v>
+        <v>75.74±7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2749,71 +2509,59 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
       <c r="B2">
-        <v>0.76459510357815441</v>
+        <v>0.78154425612052736</v>
       </c>
       <c r="C2">
-        <v>0.7443762781186094</v>
+        <v>0.76706827309236947</v>
       </c>
       <c r="D2">
-        <v>0.78928210313447922</v>
-      </c>
-      <c r="E2">
-        <v>0.59947730056965687</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.80423226924743618</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
       <c r="B3">
-        <v>0.78531073446327682</v>
+        <v>0.79661016949152541</v>
       </c>
       <c r="C3">
-        <v>0.77290836653386463</v>
+        <v>0.78823529411764703</v>
       </c>
       <c r="D3">
-        <v>0.80704174490827663</v>
-      </c>
-      <c r="E3">
-        <v>0.62736399180102775</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8164957388415427</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
       <c r="B4">
-        <v>0.7551789077212806</v>
+        <v>0.70809792843691144</v>
       </c>
       <c r="C4">
-        <v>0.73140495867768596</v>
+        <v>0.66377440347071581</v>
       </c>
       <c r="D4">
-        <v>0.78097645529394777</v>
-      </c>
-      <c r="E4">
-        <v>0.58591136737355898</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.73893543261591788</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -2826,94 +2574,79 @@
       <c r="D5">
         <v>0.85240502672251917</v>
       </c>
-      <c r="E5">
-        <v>0.7063421400006592</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
       <c r="B6">
-        <v>0.82109227871939738</v>
+        <v>0.8192090395480226</v>
       </c>
       <c r="C6">
-        <v>0.81624758220502902</v>
+        <v>0.81609195402298851</v>
       </c>
       <c r="D6">
-        <v>0.83962877365304056</v>
-      </c>
-      <c r="E6">
-        <v>0.68517180912943121</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.83642929365881835</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
       <c r="B7">
-        <v>0.74764595103578158</v>
+        <v>0.75141242937853103</v>
       </c>
       <c r="C7">
-        <v>0.72083333333333333</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="D7">
-        <v>0.77433193702152248</v>
-      </c>
-      <c r="E7">
-        <v>0.57511631013419706</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.77714141268236314</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
       <c r="B8">
-        <v>0.83615819209039544</v>
+        <v>0.83804143126177022</v>
       </c>
       <c r="C8">
-        <v>0.8342857142857143</v>
+        <v>0.83650190114068446</v>
       </c>
       <c r="D8">
-        <v>0.85291781019789115</v>
-      </c>
-      <c r="E8">
-        <v>0.7082026384182607</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.85457893976599741</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
       <c r="B9">
-        <v>0.79661016949152541</v>
+        <v>0.77589453860640301</v>
       </c>
       <c r="C9">
-        <v>0.78656126482213429</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="D9">
-        <v>0.81752130579228666</v>
-      </c>
-      <c r="E9">
-        <v>0.64634486499740729</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.79976166401848914</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -2926,154 +2659,130 @@
       <c r="D10">
         <v>0.85240502672251917</v>
       </c>
-      <c r="E10">
-        <v>0.7063421400006592</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
       <c r="B11">
-        <v>0.71563088512241058</v>
+        <v>0.83239171374764598</v>
       </c>
       <c r="C11">
-        <v>0.67102396514161222</v>
+        <v>0.83047619047619048</v>
       </c>
       <c r="D11">
-        <v>0.74711830131445911</v>
-      </c>
-      <c r="E11">
-        <v>0.53567220476443467</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.84908276758630652</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
       <c r="B12">
-        <v>0.81355932203389836</v>
+        <v>0.81544256120527303</v>
       </c>
       <c r="C12">
-        <v>0.80701754385964908</v>
+        <v>0.80859375</v>
       </c>
       <c r="D12">
-        <v>0.83298425538061527</v>
-      </c>
-      <c r="E12">
-        <v>0.67381021179834166</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.83515816842409352</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
       <c r="B13">
-        <v>0.82862523540489641</v>
+        <v>0.83239171374764598</v>
       </c>
       <c r="C13">
-        <v>0.8260038240917783</v>
+        <v>0.83047619047619048</v>
       </c>
       <c r="D13">
-        <v>0.84576050845009398</v>
-      </c>
-      <c r="E13">
-        <v>0.69469923833035785</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.84908276758630652</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
       <c r="B14">
-        <v>0.82109227871939738</v>
+        <v>0.83615819209039544</v>
       </c>
       <c r="C14">
-        <v>0.81904761904761902</v>
+        <v>0.83677298311444648</v>
       </c>
       <c r="D14">
-        <v>0.83757763975155286</v>
-      </c>
-      <c r="E14">
-        <v>0.67741941107762038</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.85086667629640322</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
       <c r="B15">
-        <v>0.82485875706214684</v>
+        <v>0.8192090395480226</v>
       </c>
       <c r="C15">
-        <v>0.82011605415860733</v>
+        <v>0.81538461538461526</v>
       </c>
       <c r="D15">
-        <v>0.84346381626462508</v>
-      </c>
-      <c r="E15">
-        <v>0.69290867740476825</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.83694207713419033</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
       <c r="B16">
-        <v>0.84557438794726936</v>
+        <v>0.8512241054613936</v>
       </c>
       <c r="C16">
-        <v>0.84701492537313439</v>
+        <v>0.85343228200371057</v>
       </c>
       <c r="D16">
-        <v>0.85968510761230676</v>
-      </c>
-      <c r="E16">
-        <v>0.71766180238487198</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.86466849631662568</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
       <c r="B17">
-        <v>0.73258003766478341</v>
+        <v>0.8192090395480226</v>
       </c>
       <c r="C17">
-        <v>0.69915254237288138</v>
+        <v>0.81467181467181471</v>
       </c>
       <c r="D17">
-        <v>0.76104290047667211</v>
-      </c>
-      <c r="E17">
-        <v>0.55365565763063218</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.83745486060956231</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -3086,114 +2795,96 @@
       <c r="D18">
         <v>0.80142279358659552</v>
       </c>
-      <c r="E18">
-        <v>0.62103524418056288</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
       <c r="B19">
-        <v>0.82485875706214684</v>
+        <v>0.83427495291902076</v>
       </c>
       <c r="C19">
-        <v>0.81941747572815538</v>
+        <v>0.83076923076923082</v>
       </c>
       <c r="D19">
-        <v>0.84397659973999706</v>
-      </c>
-      <c r="E19">
-        <v>0.6949755770377376</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.85228224758052862</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
       <c r="B20">
-        <v>0.78154425612052736</v>
+        <v>0.79096045197740117</v>
       </c>
       <c r="C20">
-        <v>0.76518218623481782</v>
+        <v>0.77755511022044099</v>
       </c>
       <c r="D20">
-        <v>0.80525783619817992</v>
-      </c>
-      <c r="E20">
-        <v>0.62893675884834488</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.81356348403871148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
       <c r="B21">
-        <v>0.80979284369114879</v>
+        <v>0.80602636534839922</v>
       </c>
       <c r="C21">
-        <v>0.80157170923379173</v>
+        <v>0.79684418145956604</v>
       </c>
       <c r="D21">
-        <v>0.83017477971977471</v>
-      </c>
-      <c r="E21">
-        <v>0.67032918706438605</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.82685252058356207</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
       <c r="B22">
-        <v>0.83615819209039544</v>
+        <v>0.83427495291902076</v>
       </c>
       <c r="C22">
-        <v>0.83491461100569253</v>
+        <v>0.83269961977186313</v>
       </c>
       <c r="D22">
-        <v>0.85240502672251917</v>
-      </c>
-      <c r="E22">
-        <v>0.7063421400006592</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.85074389715441279</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
       <c r="B23">
-        <v>0.84557438794726936</v>
+        <v>0.84180790960451979</v>
       </c>
       <c r="C23">
-        <v>0.84758364312267664</v>
+        <v>0.84328358208955212</v>
       </c>
       <c r="D23">
-        <v>0.8591723241369349</v>
-      </c>
-      <c r="E23">
-        <v>0.71603159852296483</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.85585006500072225</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -3206,54 +2897,45 @@
       <c r="D24">
         <v>0.83630651451682803</v>
       </c>
-      <c r="E24">
-        <v>0.6794788196771212</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
       <c r="B25">
-        <v>0.839924670433145</v>
+        <v>0.84369114877589457</v>
       </c>
       <c r="C25">
-        <v>0.84052532833020632</v>
+        <v>0.84485981308411229</v>
       </c>
       <c r="D25">
-        <v>0.85470171890798785</v>
-      </c>
-      <c r="E25">
-        <v>0.70869744649381383</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8580239780442005</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
       <c r="B26">
-        <v>0.83427495291902076</v>
+        <v>0.73069679849340863</v>
       </c>
       <c r="C26">
-        <v>0.83269961977186313</v>
+        <v>0.69509594882729209</v>
       </c>
       <c r="D26">
-        <v>0.85074389715441279</v>
-      </c>
-      <c r="E26">
-        <v>0.70342097196676601</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.75989455438393749</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -3261,39 +2943,33 @@
         <v>0.82674199623352163</v>
       </c>
       <c r="C27">
-        <v>0.82442748091603058</v>
+        <v>0.82509505703422048</v>
       </c>
       <c r="D27">
-        <v>0.84358659540661551</v>
-      </c>
-      <c r="E27">
-        <v>0.68989910849241942</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.84307381193124353</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
       <c r="B28">
-        <v>0.80037664783427498</v>
+        <v>0.80225988700564976</v>
       </c>
       <c r="C28">
-        <v>0.78968253968253965</v>
+        <v>0.79289940828402372</v>
       </c>
       <c r="D28">
-        <v>0.82186913187924304</v>
-      </c>
-      <c r="E28">
-        <v>0.65640449941694512</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.82301747797197755</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -3306,14 +2982,11 @@
       <c r="D29">
         <v>0.83361981799797757</v>
       </c>
-      <c r="E29">
-        <v>0.67256507517939812</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -3326,71 +2999,61 @@
       <c r="D30">
         <v>0.87016466849631657</v>
       </c>
-      <c r="E30">
-        <v>0.73736369214302422</v>
-      </c>
-      <c r="F30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
       <c r="B31">
-        <v>0.81732580037664782</v>
+        <v>0.81544256120527303</v>
       </c>
       <c r="C31">
-        <v>0.81237911025145071</v>
+        <v>0.81081081081081097</v>
       </c>
       <c r="D31">
-        <v>0.83579373104145605</v>
-      </c>
-      <c r="E31">
-        <v>0.67743494085409406</v>
-      </c>
-      <c r="F31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+        <v>0.83361981799797757</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
-        <v>80.82±4</v>
-      </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
-        <v>79.92±5</v>
-      </c>
-      <c r="D33" s="3" t="str">
+        <v>81.14±3</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+        <v>80.37±5</v>
+      </c>
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>82.78±3</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>66.5±5</v>
+        <v>83.05±3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3406,11 +3069,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -3423,134 +3083,113 @@
       <c r="D2">
         <v>0.55773508594539933</v>
       </c>
-      <c r="E2">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
       <c r="B3">
-        <v>0.59510357815442561</v>
+        <v>0.59698681732580039</v>
       </c>
       <c r="C3">
-        <v>0.7009735744089014</v>
+        <v>0.70277777777777783</v>
       </c>
       <c r="D3">
-        <v>0.55773508594539933</v>
-      </c>
-      <c r="E3">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F3" t="s">
+        <v>0.55939621551350571</v>
+      </c>
+      <c r="E3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
       <c r="B4">
-        <v>0.59698681732580039</v>
+        <v>0.59510357815442561</v>
       </c>
       <c r="C4">
-        <v>0.70277777777777783</v>
+        <v>0.7009735744089014</v>
       </c>
       <c r="D4">
-        <v>0.55939621551350571</v>
-      </c>
-      <c r="E4">
-        <v>0.14428457781689921</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55773508594539933</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
       <c r="B5">
-        <v>0.6064030131826742</v>
+        <v>0.59510357815442561</v>
       </c>
       <c r="C5">
-        <v>0.70521861777150918</v>
+        <v>0.7009735744089014</v>
       </c>
       <c r="D5">
-        <v>0.57180413115701278</v>
-      </c>
-      <c r="E5">
-        <v>0.16867237331196849</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55773508594539933</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
       <c r="B6">
-        <v>0.59510357815442561</v>
+        <v>0.59698681732580039</v>
       </c>
       <c r="C6">
-        <v>0.7009735744089014</v>
+        <v>0.70277777777777783</v>
       </c>
       <c r="D6">
-        <v>0.55773508594539933</v>
-      </c>
-      <c r="E6">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F6" t="s">
+        <v>0.55939621551350571</v>
+      </c>
+      <c r="E6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
       <c r="B7">
-        <v>0.61393596986817323</v>
+        <v>0.59510357815442561</v>
       </c>
       <c r="C7">
-        <v>0.71004243281471013</v>
+        <v>0.7009735744089014</v>
       </c>
       <c r="D7">
-        <v>0.57998699985555402</v>
-      </c>
-      <c r="E7">
-        <v>0.18684373739295071</v>
-      </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55773508594539933</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
       <c r="B8">
-        <v>0.59510357815442561</v>
+        <v>0.59698681732580039</v>
       </c>
       <c r="C8">
-        <v>0.7009735744089014</v>
+        <v>0.70277777777777783</v>
       </c>
       <c r="D8">
-        <v>0.55773508594539933</v>
-      </c>
-      <c r="E8">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F8" t="s">
+        <v>0.55939621551350571</v>
+      </c>
+      <c r="E8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -3563,54 +3202,45 @@
       <c r="D9">
         <v>0.55773508594539933</v>
       </c>
-      <c r="E9">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
       <c r="B10">
-        <v>0.59698681732580039</v>
+        <v>0.59510357815442561</v>
       </c>
       <c r="C10">
-        <v>0.70277777777777783</v>
+        <v>0.7009735744089014</v>
       </c>
       <c r="D10">
-        <v>0.55939621551350571</v>
-      </c>
-      <c r="E10">
-        <v>0.14428457781689921</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55773508594539933</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
       <c r="B11">
-        <v>0.59510357815442561</v>
+        <v>0.59698681732580039</v>
       </c>
       <c r="C11">
-        <v>0.7009735744089014</v>
+        <v>0.70277777777777783</v>
       </c>
       <c r="D11">
-        <v>0.55773508594539933</v>
-      </c>
-      <c r="E11">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F11" t="s">
+        <v>0.55939621551350571</v>
+      </c>
+      <c r="E11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -3623,14 +3253,11 @@
       <c r="D12">
         <v>0.55773508594539933</v>
       </c>
-      <c r="E12">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -3643,114 +3270,96 @@
       <c r="D13">
         <v>0.55773508594539933</v>
       </c>
-      <c r="E13">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
       <c r="B14">
-        <v>0.61393596986817323</v>
+        <v>0.59510357815442561</v>
       </c>
       <c r="C14">
-        <v>0.71004243281471013</v>
+        <v>0.7009735744089014</v>
       </c>
       <c r="D14">
-        <v>0.57998699985555402</v>
-      </c>
-      <c r="E14">
-        <v>0.18684373739295071</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55773508594539933</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
       <c r="B15">
-        <v>0.6064030131826742</v>
+        <v>0.59510357815442561</v>
       </c>
       <c r="C15">
-        <v>0.70521861777150918</v>
+        <v>0.7009735744089014</v>
       </c>
       <c r="D15">
-        <v>0.57180413115701278</v>
-      </c>
-      <c r="E15">
-        <v>0.16867237331196849</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55773508594539933</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
       <c r="B16">
-        <v>0.59698681732580039</v>
+        <v>0.61205273069679844</v>
       </c>
       <c r="C16">
-        <v>0.70277777777777783</v>
+        <v>0.69345238095238093</v>
       </c>
       <c r="D16">
-        <v>0.55939621551350571</v>
-      </c>
-      <c r="E16">
-        <v>0.14428457781689921</v>
-      </c>
-      <c r="F16" t="s">
+        <v>0.58704318936877076</v>
+      </c>
+      <c r="E16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
       <c r="B17">
-        <v>0.61393596986817323</v>
+        <v>0.6064030131826742</v>
       </c>
       <c r="C17">
-        <v>0.71004243281471013</v>
+        <v>0.70521861777150918</v>
       </c>
       <c r="D17">
-        <v>0.57998699985555402</v>
-      </c>
-      <c r="E17">
-        <v>0.18684373739295071</v>
-      </c>
-      <c r="F17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.57180413115701278</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
       <c r="B18">
-        <v>0.59698681732580039</v>
+        <v>0.6064030131826742</v>
       </c>
       <c r="C18">
-        <v>0.70277777777777783</v>
+        <v>0.70521861777150918</v>
       </c>
       <c r="D18">
-        <v>0.55939621551350571</v>
-      </c>
-      <c r="E18">
-        <v>0.14428457781689921</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.57180413115701278</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -3763,74 +3372,62 @@
       <c r="D19">
         <v>0.55773508594539933</v>
       </c>
-      <c r="E19">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
       <c r="B20">
-        <v>0.59698681732580039</v>
+        <v>0.59510357815442561</v>
       </c>
       <c r="C20">
-        <v>0.70277777777777783</v>
+        <v>0.7009735744089014</v>
       </c>
       <c r="D20">
-        <v>0.55939621551350571</v>
-      </c>
-      <c r="E20">
-        <v>0.14428457781689921</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55773508594539933</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
       <c r="B21">
-        <v>0.59510357815442561</v>
+        <v>0.6064030131826742</v>
       </c>
       <c r="C21">
-        <v>0.7009735744089014</v>
+        <v>0.70521861777150918</v>
       </c>
       <c r="D21">
-        <v>0.55773508594539933</v>
-      </c>
-      <c r="E21">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.57180413115701278</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
       <c r="B22">
-        <v>0.59698681732580039</v>
+        <v>0.59510357815442561</v>
       </c>
       <c r="C22">
-        <v>0.70277777777777783</v>
+        <v>0.7009735744089014</v>
       </c>
       <c r="D22">
-        <v>0.55939621551350571</v>
-      </c>
-      <c r="E22">
-        <v>0.14428457781689921</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55773508594539933</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -3843,14 +3440,11 @@
       <c r="D23">
         <v>0.55773508594539933</v>
       </c>
-      <c r="E23">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -3863,134 +3457,113 @@
       <c r="D24">
         <v>0.55773508594539933</v>
       </c>
-      <c r="E24">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
       <c r="B25">
-        <v>0.59510357815442561</v>
+        <v>0.6064030131826742</v>
       </c>
       <c r="C25">
-        <v>0.7009735744089014</v>
+        <v>0.70521861777150918</v>
       </c>
       <c r="D25">
-        <v>0.55773508594539933</v>
-      </c>
-      <c r="E25">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.57180413115701278</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
       <c r="B26">
-        <v>0.59698681732580039</v>
+        <v>0.61393596986817323</v>
       </c>
       <c r="C26">
-        <v>0.70277777777777783</v>
+        <v>0.71004243281471013</v>
       </c>
       <c r="D26">
-        <v>0.55939621551350571</v>
-      </c>
-      <c r="E26">
-        <v>0.14428457781689921</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.57998699985555402</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
       <c r="B27">
-        <v>0.59698681732580039</v>
+        <v>0.6064030131826742</v>
       </c>
       <c r="C27">
-        <v>0.70277777777777783</v>
+        <v>0.70521861777150918</v>
       </c>
       <c r="D27">
-        <v>0.55939621551350571</v>
-      </c>
-      <c r="E27">
-        <v>0.14428457781689921</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.57180413115701278</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
       <c r="B28">
-        <v>0.61393596986817323</v>
+        <v>0.59510357815442561</v>
       </c>
       <c r="C28">
-        <v>0.71004243281471013</v>
+        <v>0.7009735744089014</v>
       </c>
       <c r="D28">
-        <v>0.57998699985555402</v>
-      </c>
-      <c r="E28">
-        <v>0.18684373739295071</v>
-      </c>
-      <c r="F28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55773508594539933</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
       <c r="B29">
-        <v>0.59510357815442561</v>
+        <v>0.61393596986817323</v>
       </c>
       <c r="C29">
-        <v>0.7009735744089014</v>
+        <v>0.71004243281471013</v>
       </c>
       <c r="D29">
-        <v>0.55773508594539933</v>
-      </c>
-      <c r="E29">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.57998699985555402</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
       <c r="B30">
-        <v>0.59698681732580039</v>
+        <v>0.59510357815442561</v>
       </c>
       <c r="C30">
-        <v>0.70277777777777783</v>
+        <v>0.7009735744089014</v>
       </c>
       <c r="D30">
-        <v>0.55939621551350571</v>
-      </c>
-      <c r="E30">
-        <v>0.14428457781689921</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55773508594539933</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -4003,51 +3576,44 @@
       <c r="D31">
         <v>0.55773508594539933</v>
       </c>
-      <c r="E31">
-        <v>0.13979434883889791</v>
-      </c>
-      <c r="F31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
-        <v>59.89±1</v>
-      </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
-        <v>70.3±0</v>
-      </c>
-      <c r="D33" s="3" t="str">
+        <v>59.91±1</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+        <v>70.23±0</v>
+      </c>
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>56.21±1</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>14.93±2</v>
+        <v>56.28±1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4063,11 +3629,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -4080,14 +3643,11 @@
       <c r="D2">
         <v>0.68179257547306094</v>
       </c>
-      <c r="E2">
-        <v>0.37455560395996051</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -4100,14 +3660,11 @@
       <c r="D3">
         <v>0.67781308681207564</v>
       </c>
-      <c r="E3">
-        <v>0.37771377288315161</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -4120,14 +3677,11 @@
       <c r="D4">
         <v>0.68408926765852951</v>
       </c>
-      <c r="E4">
-        <v>0.38194920194470078</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -4140,14 +3694,11 @@
       <c r="D5">
         <v>0.69764552939477109</v>
       </c>
-      <c r="E5">
-        <v>0.40632843217397191</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -4160,14 +3711,11 @@
       <c r="D6">
         <v>0.67436804853387255</v>
       </c>
-      <c r="E6">
-        <v>0.36554952284040432</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -4180,14 +3728,11 @@
       <c r="D7">
         <v>0.65072223024700271</v>
       </c>
-      <c r="E7">
-        <v>0.31389241713869531</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -4200,14 +3745,11 @@
       <c r="D8">
         <v>0.68127979199768895</v>
       </c>
-      <c r="E8">
-        <v>0.3743436008262741</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -4220,14 +3762,11 @@
       <c r="D9">
         <v>0.651870576339737</v>
       </c>
-      <c r="E9">
-        <v>0.31752468432328401</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -4240,14 +3779,11 @@
       <c r="D10">
         <v>0.671558572873032</v>
       </c>
-      <c r="E10">
-        <v>0.35774569762984582</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -4260,14 +3796,11 @@
       <c r="D11">
         <v>0.67104578939765991</v>
       </c>
-      <c r="E11">
-        <v>0.35761542223836479</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -4280,14 +3813,11 @@
       <c r="D12">
         <v>0.68882709807886755</v>
       </c>
-      <c r="E12">
-        <v>0.386978439050846</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -4300,14 +3830,11 @@
       <c r="D13">
         <v>0.67041022678029749</v>
       </c>
-      <c r="E13">
-        <v>0.35400288079311082</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -4320,14 +3847,11 @@
       <c r="D14">
         <v>0.67539361548461641</v>
       </c>
-      <c r="E14">
-        <v>0.36574279140106108</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -4340,14 +3864,11 @@
       <c r="D15">
         <v>0.66682074245269385</v>
       </c>
-      <c r="E15">
-        <v>0.35327732515823451</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -4360,14 +3881,11 @@
       <c r="D16">
         <v>0.67028744763830717</v>
       </c>
-      <c r="E16">
-        <v>0.35085105995661459</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -4380,14 +3898,11 @@
       <c r="D17">
         <v>0.67436804853387255</v>
       </c>
-      <c r="E17">
-        <v>0.36554952284040432</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -4400,14 +3915,11 @@
       <c r="D18">
         <v>0.67282969810775672</v>
       </c>
-      <c r="E18">
-        <v>0.36545252587958299</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -4420,14 +3932,11 @@
       <c r="D19">
         <v>0.68421204680051995</v>
       </c>
-      <c r="E19">
-        <v>0.38566069429022692</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -4440,14 +3949,11 @@
       <c r="D20">
         <v>0.64688718763541808</v>
       </c>
-      <c r="E20">
-        <v>0.30590560064050909</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -4460,14 +3966,11 @@
       <c r="D21">
         <v>0.63780153112812366</v>
       </c>
-      <c r="E21">
-        <v>0.29226842484485571</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -4480,14 +3983,11 @@
       <c r="D22">
         <v>0.67399971110790124</v>
       </c>
-      <c r="E22">
-        <v>0.35587435577749488</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -4500,14 +4000,11 @@
       <c r="D23">
         <v>0.67680918676874191</v>
       </c>
-      <c r="E23">
-        <v>0.36310443117713143</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -4520,14 +4017,11 @@
       <c r="D24">
         <v>0.67847031633684829</v>
       </c>
-      <c r="E24">
-        <v>0.36690717998432432</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -4540,14 +4034,11 @@
       <c r="D25">
         <v>0.65890509894554383</v>
       </c>
-      <c r="E25">
-        <v>0.3301026227255785</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -4560,14 +4051,11 @@
       <c r="D26">
         <v>0.67910587895421048</v>
       </c>
-      <c r="E26">
-        <v>0.37028235127974102</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -4580,14 +4068,11 @@
       <c r="D27">
         <v>0.65646396071067459</v>
       </c>
-      <c r="E27">
-        <v>0.33288470689289551</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -4600,14 +4085,11 @@
       <c r="D28">
         <v>0.64586162068467423</v>
       </c>
-      <c r="E28">
-        <v>0.30537141777955867</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -4620,14 +4102,11 @@
       <c r="D29">
         <v>0.66222735808175648</v>
       </c>
-      <c r="E29">
-        <v>0.33785286663325381</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -4640,14 +4119,11 @@
       <c r="D30">
         <v>0.67016466849631673</v>
       </c>
-      <c r="E30">
-        <v>0.34803070299159711</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -4660,51 +4136,44 @@
       <c r="D31">
         <v>0.69048822764697371</v>
       </c>
-      <c r="E31">
-        <v>0.39078596345801708</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>68.79±1</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>74.37±1</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>67.08±1</v>
       </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>35.51±3</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4720,11 +4189,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -4737,14 +4203,11 @@
       <c r="D2">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E2">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -4757,14 +4220,11 @@
       <c r="D3">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E3">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -4777,14 +4237,11 @@
       <c r="D4">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E4">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -4797,14 +4254,11 @@
       <c r="D5">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E5">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -4817,14 +4271,11 @@
       <c r="D6">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E6">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -4837,14 +4288,11 @@
       <c r="D7">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E7">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -4857,14 +4305,11 @@
       <c r="D8">
         <v>0.88919543550483893</v>
       </c>
-      <c r="E8">
-        <v>0.77146835083641374</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -4877,14 +4322,11 @@
       <c r="D9">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E9">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -4897,14 +4339,11 @@
       <c r="D10">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E10">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -4917,14 +4356,11 @@
       <c r="D11">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E11">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -4937,14 +4373,11 @@
       <c r="D12">
         <v>0.88919543550483893</v>
       </c>
-      <c r="E12">
-        <v>0.77146835083641374</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -4957,14 +4390,11 @@
       <c r="D13">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E13">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -4977,14 +4407,11 @@
       <c r="D14">
         <v>0.88919543550483893</v>
       </c>
-      <c r="E14">
-        <v>0.77146835083641374</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -4997,14 +4424,11 @@
       <c r="D15">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E15">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -5017,14 +4441,11 @@
       <c r="D16">
         <v>0.88919543550483893</v>
       </c>
-      <c r="E16">
-        <v>0.77146835083641374</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -5037,14 +4458,11 @@
       <c r="D17">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E17">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -5057,14 +4475,11 @@
       <c r="D18">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E18">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -5077,14 +4492,11 @@
       <c r="D19">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E19">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -5097,14 +4509,11 @@
       <c r="D20">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E20">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -5117,14 +4526,11 @@
       <c r="D21">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E21">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -5137,14 +4543,11 @@
       <c r="D22">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E22">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -5157,14 +4560,11 @@
       <c r="D23">
         <v>0.88919543550483893</v>
       </c>
-      <c r="E23">
-        <v>0.77146835083641374</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -5177,14 +4577,11 @@
       <c r="D24">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E24">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -5197,14 +4594,11 @@
       <c r="D25">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E25">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -5217,14 +4611,11 @@
       <c r="D26">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E26">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -5237,14 +4628,11 @@
       <c r="D27">
         <v>0.88919543550483893</v>
       </c>
-      <c r="E27">
-        <v>0.77146835083641374</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -5257,14 +4645,11 @@
       <c r="D28">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E28">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -5277,14 +4662,11 @@
       <c r="D29">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E29">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -5297,14 +4679,11 @@
       <c r="D30">
         <v>0.89136934854831718</v>
       </c>
-      <c r="E30">
-        <v>0.77582154331892383</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -5317,51 +4696,44 @@
       <c r="D31">
         <v>0.88919543550483893</v>
       </c>
-      <c r="E31">
-        <v>0.77146835083641374</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>88.28±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>88.93±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>89.09±0</v>
       </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>77.48±0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5377,11 +4749,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -5394,14 +4763,11 @@
       <c r="D2">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E2">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -5414,14 +4780,11 @@
       <c r="D3">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E3">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -5434,14 +4797,11 @@
       <c r="D4">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E4">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -5454,14 +4814,11 @@
       <c r="D5">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E5">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -5474,14 +4831,11 @@
       <c r="D6">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E6">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -5494,14 +4848,11 @@
       <c r="D7">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E7">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -5514,14 +4865,11 @@
       <c r="D8">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E8">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -5534,14 +4882,11 @@
       <c r="D9">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E9">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -5554,14 +4899,11 @@
       <c r="D10">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E10">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -5574,14 +4916,11 @@
       <c r="D11">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E11">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -5594,14 +4933,11 @@
       <c r="D12">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E12">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -5614,14 +4950,11 @@
       <c r="D13">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E13">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -5634,14 +4967,11 @@
       <c r="D14">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E14">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -5654,14 +4984,11 @@
       <c r="D15">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E15">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -5674,14 +5001,11 @@
       <c r="D16">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E16">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -5694,14 +5018,11 @@
       <c r="D17">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E17">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -5714,14 +5035,11 @@
       <c r="D18">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E18">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -5734,14 +5052,11 @@
       <c r="D19">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E19">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -5754,14 +5069,11 @@
       <c r="D20">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E20">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -5774,14 +5086,11 @@
       <c r="D21">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E21">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -5794,14 +5103,11 @@
       <c r="D22">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E22">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -5814,14 +5120,11 @@
       <c r="D23">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E23">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -5834,14 +5137,11 @@
       <c r="D24">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E24">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -5854,14 +5154,11 @@
       <c r="D25">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E25">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -5874,14 +5171,11 @@
       <c r="D26">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E26">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -5894,14 +5188,11 @@
       <c r="D27">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E27">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -5914,14 +5205,11 @@
       <c r="D28">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E28">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -5934,14 +5222,11 @@
       <c r="D29">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E29">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -5954,14 +5239,11 @@
       <c r="D30">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E30">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -5974,51 +5256,44 @@
       <c r="D31">
         <v>0.82096634407048974</v>
       </c>
-      <c r="E31">
-        <v>0.64848530495588841</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>80.23±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>79.61±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>82.1±0</v>
       </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>64.85±0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6034,11 +5309,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -6051,14 +5323,11 @@
       <c r="D2">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E2">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -6071,14 +5340,11 @@
       <c r="D3">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E3">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -6091,14 +5357,11 @@
       <c r="D4">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E4">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -6111,14 +5374,11 @@
       <c r="D5">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E5">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -6131,14 +5391,11 @@
       <c r="D6">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E6">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -6151,14 +5408,11 @@
       <c r="D7">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E7">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -6171,14 +5425,11 @@
       <c r="D8">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E8">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -6191,14 +5442,11 @@
       <c r="D9">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E9">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -6211,14 +5459,11 @@
       <c r="D10">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E10">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -6231,14 +5476,11 @@
       <c r="D11">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E11">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -6251,14 +5493,11 @@
       <c r="D12">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E12">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -6271,14 +5510,11 @@
       <c r="D13">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E13">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -6291,14 +5527,11 @@
       <c r="D14">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E14">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -6311,14 +5544,11 @@
       <c r="D15">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E15">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -6331,14 +5561,11 @@
       <c r="D16">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E16">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -6351,14 +5578,11 @@
       <c r="D17">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E17">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -6371,14 +5595,11 @@
       <c r="D18">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E18">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -6391,14 +5612,11 @@
       <c r="D19">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E19">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -6411,14 +5629,11 @@
       <c r="D20">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E20">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -6431,14 +5646,11 @@
       <c r="D21">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E21">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -6451,14 +5663,11 @@
       <c r="D22">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E22">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -6471,14 +5680,11 @@
       <c r="D23">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E23">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -6491,14 +5697,11 @@
       <c r="D24">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E24">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -6511,14 +5714,11 @@
       <c r="D25">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E25">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -6531,14 +5731,11 @@
       <c r="D26">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E26">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -6551,14 +5748,11 @@
       <c r="D27">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E27">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -6571,14 +5765,11 @@
       <c r="D28">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E28">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -6591,14 +5782,11 @@
       <c r="D29">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E29">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -6611,14 +5799,11 @@
       <c r="D30">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E30">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -6631,51 +5816,44 @@
       <c r="D31">
         <v>0.73694207713419035</v>
       </c>
-      <c r="E31">
-        <v>0.46962974657304379</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>73.26±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>74.91±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>73.69±0</v>
       </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>46.96±0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6691,311 +5869,263 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
       <c r="B2">
-        <v>0.71751412429378536</v>
+        <v>0.60263653483992463</v>
       </c>
       <c r="C2">
-        <v>0.70703124999999989</v>
+        <v>0.52584269662921357</v>
       </c>
       <c r="D2">
-        <v>0.73544706052289477</v>
-      </c>
-      <c r="E2">
-        <v>0.47681972997015781</v>
-      </c>
-      <c r="F2" t="s">
+        <v>0.6356565072945255</v>
+      </c>
+      <c r="E2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
       <c r="B3">
-        <v>0.65348399246704336</v>
+        <v>0.63088512241054617</v>
       </c>
       <c r="C3">
-        <v>0.61016949152542366</v>
+        <v>0.57758620689655171</v>
       </c>
       <c r="D3">
-        <v>0.68050700563339594</v>
-      </c>
-      <c r="E3">
-        <v>0.38284406405385102</v>
-      </c>
-      <c r="F3" t="s">
+        <v>0.65954788386537633</v>
+      </c>
+      <c r="E3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
       <c r="B4">
-        <v>0.65725047080979282</v>
+        <v>0.72881355932203384</v>
       </c>
       <c r="C4">
-        <v>0.62083333333333324</v>
+        <v>0.72093023255813959</v>
       </c>
       <c r="D4">
-        <v>0.68229091434349265</v>
-      </c>
-      <c r="E4">
-        <v>0.38215921619068899</v>
-      </c>
-      <c r="F4" t="s">
+        <v>0.74592662140690458</v>
+      </c>
+      <c r="E4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
       <c r="B5">
-        <v>0.61581920903954801</v>
+        <v>0.59510357815442561</v>
       </c>
       <c r="C5">
-        <v>0.54054054054054057</v>
+        <v>0.52538631346578357</v>
       </c>
       <c r="D5">
-        <v>0.64933554817275752</v>
-      </c>
-      <c r="E5">
-        <v>0.33362338188283691</v>
-      </c>
-      <c r="F5" t="s">
+        <v>0.62593528816986854</v>
+      </c>
+      <c r="E5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
       <c r="B6">
-        <v>0.64218455743879477</v>
+        <v>0.68926553672316382</v>
       </c>
       <c r="C6">
-        <v>0.59745762711864414</v>
+        <v>0.6719681908548707</v>
       </c>
       <c r="D6">
-        <v>0.66900187779864217</v>
-      </c>
-      <c r="E6">
-        <v>0.35844240782859649</v>
-      </c>
-      <c r="F6" t="s">
+        <v>0.70899176657518415</v>
+      </c>
+      <c r="E6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
       <c r="B7">
-        <v>0.59698681732580039</v>
+        <v>0.66478342749529196</v>
       </c>
       <c r="C7">
-        <v>0.50917431192660556</v>
+        <v>0.63223140495867769</v>
       </c>
       <c r="D7">
-        <v>0.63221146901632241</v>
-      </c>
-      <c r="E7">
-        <v>0.30090667030729112</v>
-      </c>
-      <c r="F7" t="s">
+        <v>0.68893543261591794</v>
+      </c>
+      <c r="E7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
       <c r="B8">
-        <v>0.61958568738229758</v>
+        <v>0.63653483992467041</v>
       </c>
       <c r="C8">
-        <v>0.56086956521739129</v>
+        <v>0.59368421052631581</v>
       </c>
       <c r="D8">
-        <v>0.64906832298136641</v>
-      </c>
-      <c r="E8">
-        <v>0.32254661986035998</v>
-      </c>
-      <c r="F8" t="s">
+        <v>0.66248013866820743</v>
+      </c>
+      <c r="E8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
       <c r="B9">
-        <v>0.66666666666666663</v>
+        <v>0.64783427495291901</v>
       </c>
       <c r="C9">
-        <v>0.63354037267080754</v>
+        <v>0.60631578947368436</v>
       </c>
       <c r="D9">
-        <v>0.69110934565939619</v>
-      </c>
-      <c r="E9">
-        <v>0.39903471469615942</v>
-      </c>
-      <c r="F9" t="s">
+        <v>0.67398526650296109</v>
+      </c>
+      <c r="E9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
       <c r="B10">
-        <v>0.63276836158192096</v>
+        <v>0.6384180790960452</v>
       </c>
       <c r="C10">
-        <v>0.58422174840085284</v>
+        <v>0.59148936170212774</v>
       </c>
       <c r="D10">
-        <v>0.66018344648273874</v>
-      </c>
-      <c r="E10">
-        <v>0.34133973086943797</v>
-      </c>
-      <c r="F10" t="s">
+        <v>0.66567961866242964</v>
+      </c>
+      <c r="E10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
       <c r="B11">
-        <v>0.66854990583804141</v>
+        <v>0.61958568738229758</v>
       </c>
       <c r="C11">
-        <v>0.63786008230452673</v>
+        <v>0.55895196506550227</v>
       </c>
       <c r="D11">
-        <v>0.69225769175213059</v>
-      </c>
-      <c r="E11">
-        <v>0.39988671081375848</v>
-      </c>
-      <c r="F11" t="s">
+        <v>0.6495811064567385</v>
+      </c>
+      <c r="E11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
       <c r="B12">
-        <v>0.58945386064030136</v>
+        <v>0.57062146892655363</v>
       </c>
       <c r="C12">
-        <v>0.50678733031674217</v>
+        <v>0.46976744186046521</v>
       </c>
       <c r="D12">
-        <v>0.62300303336703744</v>
-      </c>
-      <c r="E12">
-        <v>0.27602671906388138</v>
-      </c>
-      <c r="F12" t="s">
+        <v>0.6069045211613463</v>
+      </c>
+      <c r="E12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
       <c r="B13">
-        <v>0.62523540489642182</v>
+        <v>0.64406779661016944</v>
       </c>
       <c r="C13">
-        <v>0.57204301075268826</v>
+        <v>0.59872611464968162</v>
       </c>
       <c r="D13">
-        <v>0.65353892821031345</v>
-      </c>
-      <c r="E13">
-        <v>0.32933714019443039</v>
-      </c>
-      <c r="F13" t="s">
+        <v>0.67117579084212053</v>
+      </c>
+      <c r="E13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
       <c r="B14">
-        <v>0.64218455743879477</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C14">
-        <v>0.5957446808510638</v>
+        <v>0.57510729613733902</v>
       </c>
       <c r="D14">
-        <v>0.66951466127401427</v>
-      </c>
-      <c r="E14">
-        <v>0.36065070880184402</v>
-      </c>
-      <c r="F14" t="s">
+        <v>0.65520005777841983</v>
+      </c>
+      <c r="E14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
       <c r="B15">
-        <v>0.61581920903954801</v>
+        <v>0.63465160075329563</v>
       </c>
       <c r="C15">
-        <v>0.55263157894736847</v>
+        <v>0.58008658008657998</v>
       </c>
       <c r="D15">
-        <v>0.64625884732052585</v>
-      </c>
-      <c r="E15">
-        <v>0.31881557985196951</v>
-      </c>
-      <c r="F15" t="s">
+        <v>0.66389570995233282</v>
+      </c>
+      <c r="E15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
       <c r="B16">
-        <v>0.64595103578154422</v>
+        <v>0.71374764595103579</v>
       </c>
       <c r="C16">
-        <v>0.60833333333333339</v>
+        <v>0.7042801556420234</v>
       </c>
       <c r="D16">
-        <v>0.67078578650873899</v>
-      </c>
-      <c r="E16">
-        <v>0.35803957944775061</v>
-      </c>
-      <c r="F16" t="s">
+        <v>0.73109923443593827</v>
+      </c>
+      <c r="E16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -7003,321 +6133,272 @@
         <v>0.67796610169491522</v>
       </c>
       <c r="C17">
-        <v>0.65314401622718044</v>
+        <v>0.65593561368209252</v>
       </c>
       <c r="D17">
-        <v>0.70005055611729017</v>
-      </c>
-      <c r="E17">
-        <v>0.41263537876722872</v>
-      </c>
-      <c r="F17" t="s">
+        <v>0.69902498916654621</v>
+      </c>
+      <c r="E17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
       <c r="B18">
-        <v>0.64783427495291901</v>
+        <v>0.64406779661016944</v>
       </c>
       <c r="C18">
-        <v>0.6012793176972282</v>
+        <v>0.59354838709677427</v>
       </c>
       <c r="D18">
-        <v>0.67552361692907703</v>
-      </c>
-      <c r="E18">
-        <v>0.37402856212272662</v>
-      </c>
-      <c r="F18" t="s">
+        <v>0.67271414126823637</v>
+      </c>
+      <c r="E18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
       <c r="B19">
-        <v>0.64218455743879477</v>
+        <v>0.67984934086629001</v>
       </c>
       <c r="C19">
-        <v>0.59745762711864414</v>
+        <v>0.65163934426229508</v>
       </c>
       <c r="D19">
-        <v>0.66900187779864217</v>
-      </c>
-      <c r="E19">
-        <v>0.35844240782859649</v>
-      </c>
-      <c r="F19" t="s">
+        <v>0.70325003611151238</v>
+      </c>
+      <c r="E19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
       <c r="B20">
-        <v>0.62335216572504704</v>
+        <v>0.60075329566854996</v>
       </c>
       <c r="C20">
-        <v>0.57805907172995785</v>
+        <v>0.52036199095022628</v>
       </c>
       <c r="D20">
-        <v>0.64931388126534739</v>
-      </c>
-      <c r="E20">
-        <v>0.31572776932864599</v>
-      </c>
-      <c r="F20" t="s">
+        <v>0.6345081612017911</v>
+      </c>
+      <c r="E20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
       <c r="B21">
-        <v>0.57062146892655363</v>
+        <v>0.58945386064030136</v>
       </c>
       <c r="C21">
-        <v>0.47465437788018439</v>
+        <v>0.50228310502283102</v>
       </c>
       <c r="D21">
-        <v>0.60587895421060234</v>
-      </c>
-      <c r="E21">
-        <v>0.24216950160526579</v>
-      </c>
-      <c r="F21" t="s">
+        <v>0.62402860031778129</v>
+      </c>
+      <c r="E21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
       <c r="B22">
-        <v>0.65160075329566858</v>
+        <v>0.62335216572504704</v>
       </c>
       <c r="C22">
-        <v>0.61052631578947358</v>
+        <v>0.5633187772925764</v>
       </c>
       <c r="D22">
-        <v>0.67782030911454572</v>
-      </c>
-      <c r="E22">
-        <v>0.37544799562833542</v>
-      </c>
-      <c r="F22" t="s">
+        <v>0.65341614906832302</v>
+      </c>
+      <c r="E22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
       <c r="B23">
-        <v>0.68738229755178903</v>
+        <v>0.59322033898305082</v>
       </c>
       <c r="C23">
-        <v>0.66800000000000004</v>
+        <v>0.5113122171945701</v>
       </c>
       <c r="D23">
-        <v>0.70784342048244986</v>
-      </c>
-      <c r="E23">
-        <v>0.42551792781409481</v>
-      </c>
-      <c r="F23" t="s">
+        <v>0.62683807597862196</v>
+      </c>
+      <c r="E23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
       <c r="B24">
-        <v>0.67419962335216577</v>
+        <v>0.64406779661016944</v>
       </c>
       <c r="C24">
-        <v>0.64182194616977228</v>
+        <v>0.60042283298097254</v>
       </c>
       <c r="D24">
-        <v>0.69877943088256544</v>
-      </c>
-      <c r="E24">
-        <v>0.41504978846537899</v>
-      </c>
-      <c r="F24" t="s">
+        <v>0.67066300736674855</v>
+      </c>
+      <c r="E24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
       <c r="B25">
-        <v>0.5856873822975518</v>
+        <v>0.69679849340866296</v>
       </c>
       <c r="C25">
-        <v>0.5</v>
+        <v>0.67992047713717685</v>
       </c>
       <c r="D25">
-        <v>0.61968077423082479</v>
-      </c>
-      <c r="E25">
-        <v>0.26980569838231683</v>
-      </c>
-      <c r="F25" t="s">
+        <v>0.71666185179835329</v>
+      </c>
+      <c r="E25" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
       <c r="B26">
-        <v>0.63653483992467041</v>
+        <v>0.61958568738229758</v>
       </c>
       <c r="C26">
-        <v>0.59023354564755848</v>
+        <v>0.54708520179372189</v>
       </c>
       <c r="D26">
-        <v>0.66350570561895128</v>
-      </c>
-      <c r="E26">
-        <v>0.34732177515441381</v>
-      </c>
-      <c r="F26" t="s">
+        <v>0.65265780730897016</v>
+      </c>
+      <c r="E26" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
       <c r="B27">
-        <v>0.6591337099811676</v>
+        <v>0.65725047080979282</v>
       </c>
       <c r="C27">
-        <v>0.62525879917184268</v>
+        <v>0.61764705882352944</v>
       </c>
       <c r="D27">
-        <v>0.68343926043622705</v>
-      </c>
-      <c r="E27">
-        <v>0.38301964092693969</v>
-      </c>
-      <c r="F27" t="s">
+        <v>0.68331648129423661</v>
+      </c>
+      <c r="E27" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
       <c r="B28">
-        <v>0.67231638418079098</v>
+        <v>0.65536723163841804</v>
       </c>
       <c r="C28">
-        <v>0.64197530864197516</v>
+        <v>0.61954261954261958</v>
       </c>
       <c r="D28">
-        <v>0.69609273436371522</v>
-      </c>
-      <c r="E28">
-        <v>0.40786341417371741</v>
-      </c>
-      <c r="F28" t="s">
+        <v>0.6801170013000144</v>
+      </c>
+      <c r="E28" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
       <c r="B29">
-        <v>0.65160075329566858</v>
+        <v>0.58945386064030136</v>
       </c>
       <c r="C29">
-        <v>0.60721868365180465</v>
+        <v>0.50900900900900903</v>
       </c>
       <c r="D29">
-        <v>0.67884587606528957</v>
-      </c>
-      <c r="E29">
-        <v>0.37990764248194492</v>
-      </c>
-      <c r="F29" t="s">
+        <v>0.62249024989166535</v>
+      </c>
+      <c r="E29" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
       <c r="B30">
-        <v>0.62335216572504704</v>
+        <v>0.64030131826741998</v>
       </c>
       <c r="C30">
-        <v>0.56140350877192979</v>
+        <v>0.59275053304904057</v>
       </c>
       <c r="D30">
-        <v>0.653928932543695</v>
-      </c>
-      <c r="E30">
-        <v>0.33553486017406681</v>
-      </c>
-      <c r="F30" t="s">
+        <v>0.66785353170590789</v>
+      </c>
+      <c r="E30" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
       <c r="B31">
-        <v>0.69868173258003763</v>
+        <v>0.67796610169491522</v>
       </c>
       <c r="C31">
-        <v>0.6837944664031621</v>
+        <v>0.65314401622718044</v>
       </c>
       <c r="D31">
-        <v>0.71781019789108758</v>
-      </c>
-      <c r="E31">
-        <v>0.44337340639140682</v>
-      </c>
-      <c r="F31" t="s">
+        <v>0.70005055611729017</v>
+      </c>
+      <c r="E31" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
-        <v>64.31±3</v>
-      </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
-        <v>59.57±5</v>
-      </c>
-      <c r="D33" s="3" t="str">
+        <v>64.11±4</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+        <v>59.17±6</v>
+      </c>
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>67.01±3</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>36.09±5</v>
+        <v>66.84±3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>